--- a/Gantt chart group33.xlsx
+++ b/Gantt chart group33.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfd74915eb265310/Teaching/1810ICT/Assignment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustinekim/Desktop/Software-TechICT-Group33/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1288152-9B2E-1F4F-8F36-EDF9330F621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9516"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="37300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -42,63 +43,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 01</t>
-  </si>
-  <si>
-    <t>Activity 02</t>
-  </si>
-  <si>
-    <t>Activity 03</t>
-  </si>
-  <si>
-    <t>Activity 04</t>
-  </si>
-  <si>
-    <t>Activity 05</t>
-  </si>
-  <si>
-    <t>Activity 06</t>
-  </si>
-  <si>
-    <t>Activity 07</t>
-  </si>
-  <si>
-    <t>Activity 08</t>
-  </si>
-  <si>
-    <t>Activity 09</t>
-  </si>
-  <si>
-    <t>Activity 10</t>
-  </si>
-  <si>
-    <t>Activity 11</t>
-  </si>
-  <si>
-    <t>Activity 12</t>
-  </si>
-  <si>
-    <t>Activity 13</t>
-  </si>
-  <si>
-    <t>Activity 14</t>
-  </si>
-  <si>
-    <t>Activity 15</t>
-  </si>
-  <si>
-    <t>Activity 16</t>
-  </si>
-  <si>
-    <t>Activity 17</t>
-  </si>
-  <si>
-    <t>Activity 18</t>
-  </si>
-  <si>
-    <t>Activity 19</t>
   </si>
   <si>
     <t>Activity 20</t>
@@ -259,12 +203,69 @@
   <si>
     <t>Project Title</t>
   </si>
+  <si>
+    <t>Project Scope</t>
+  </si>
+  <si>
+    <t>Project Background</t>
+  </si>
+  <si>
+    <t>WBS</t>
+  </si>
+  <si>
+    <t>Project Manangement Plan</t>
+  </si>
+  <si>
+    <t>Server Management Plan</t>
+  </si>
+  <si>
+    <t>Stakeholder Requirement</t>
+  </si>
+  <si>
+    <t>Software Design Requirement</t>
+  </si>
+  <si>
+    <t>Server Desgin</t>
+  </si>
+  <si>
+    <t>UI Design</t>
+  </si>
+  <si>
+    <t>Analysis Software Architecture</t>
+  </si>
+  <si>
+    <t>Design Software Architecture</t>
+  </si>
+  <si>
+    <t>Development Software  Architecture</t>
+  </si>
+  <si>
+    <t>Design Server Architecture</t>
+  </si>
+  <si>
+    <t>Development of Software Architecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Development </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI Development </t>
+  </si>
+  <si>
+    <t>Software Design Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Response Testing </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -364,6 +365,13 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -408,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -493,6 +501,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -551,7 +568,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,7 +599,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -618,83 +635,80 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="11">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="% complete" xfId="16"/>
-    <cellStyle name="% complete (beyond plan) legend" xfId="18"/>
-    <cellStyle name="Activity" xfId="2"/>
-    <cellStyle name="Actual (beyond plan) legend" xfId="17"/>
-    <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="% complete" xfId="16" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="% complete (beyond plan) legend" xfId="18" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Activity" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Actual (beyond plan) legend" xfId="17" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Actual legend" xfId="15" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Explanatory Text" xfId="12" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="9" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="10" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="11" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Label" xfId="5"/>
+    <cellStyle name="Label" xfId="5" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Percent Complete" xfId="6"/>
-    <cellStyle name="Period Headers" xfId="3"/>
-    <cellStyle name="Period Highlight Control" xfId="7"/>
-    <cellStyle name="Period Value" xfId="13"/>
-    <cellStyle name="Plan legend" xfId="14"/>
-    <cellStyle name="Project Headers" xfId="4"/>
+    <cellStyle name="Percent Complete" xfId="6" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Period Headers" xfId="3" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Period Highlight Control" xfId="7" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Period Value" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Plan legend" xfId="14" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -721,6 +735,19 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -797,19 +824,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
@@ -826,128 +840,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -1189,33 +1081,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AT17" sqref="AT17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.77734375" style="1"/>
-    <col min="42" max="42" width="2.77734375" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="27" width="2.83203125" style="1"/>
+    <col min="42" max="42" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="14" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1223,23 +1115,23 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="24" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="24"/>
       <c r="G2" s="5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="H2" s="15">
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
       <c r="K2" s="30" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
@@ -1247,58 +1139,58 @@
       <c r="O2" s="32"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="30" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="R2" s="33"/>
       <c r="S2" s="33"/>
       <c r="T2" s="32"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="34"/>
+      <c r="V2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="19"/>
-      <c r="AA2" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AA2" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" s="35"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="35"/>
+      <c r="AF2" s="35"/>
+      <c r="AG2" s="36"/>
       <c r="AH2" s="20"/>
-      <c r="AI2" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AI2" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+    </row>
+    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="F3" s="27" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>0</v>
@@ -1323,7 +1215,7 @@
       <c r="Z3" s="11"/>
       <c r="AA3" s="11"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="26"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
@@ -1511,9 +1403,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
-        <v>2</v>
+    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="37" t="s">
+        <v>32</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
@@ -1521,15 +1413,19 @@
       <c r="D5" s="7">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5</v>
+      </c>
       <c r="G5" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="6" t="s">
-        <v>3</v>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1539,9 +1435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="6" t="s">
-        <v>4</v>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
+        <v>33</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1551,9 +1447,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="6" t="s">
-        <v>5</v>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -1563,9 +1459,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="6" t="s">
-        <v>6</v>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -1575,9 +1471,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="6" t="s">
-        <v>7</v>
+    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1587,9 +1483,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="6" t="s">
-        <v>8</v>
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1599,9 +1495,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
-        <v>9</v>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1611,9 +1507,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="6" t="s">
-        <v>10</v>
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="38" t="s">
+        <v>39</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1623,9 +1519,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="6" t="s">
-        <v>11</v>
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="38" t="s">
+        <v>40</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1635,9 +1531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="6" t="s">
-        <v>12</v>
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="38" t="s">
+        <v>41</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="7"/>
@@ -1647,9 +1543,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="6" t="s">
-        <v>13</v>
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
+        <v>42</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1659,9 +1555,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="6" t="s">
-        <v>14</v>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="38" t="s">
+        <v>43</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1671,9 +1567,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="6" t="s">
-        <v>15</v>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="38" t="s">
+        <v>44</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1683,9 +1579,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="6" t="s">
-        <v>16</v>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1695,9 +1591,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="6" t="s">
-        <v>17</v>
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1707,9 +1603,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
-        <v>18</v>
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="38" t="s">
+        <v>47</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1719,9 +1615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6" t="s">
-        <v>19</v>
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="38" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1731,9 +1627,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="6" t="s">
-        <v>20</v>
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="38" t="s">
+        <v>49</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1743,9 +1639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1755,9 +1651,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1767,9 +1663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1779,9 +1675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1791,9 +1687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1803,9 +1699,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1815,9 +1711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1827,9 +1723,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1839,9 +1735,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1851,9 +1747,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1863,9 +1759,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1875,9 +1771,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1887,9 +1783,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1899,9 +1795,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1911,9 +1807,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1923,9 +1819,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1937,68 +1833,68 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="17" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="3">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="5">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="6">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="7">
-      <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H4:BO4">
     <cfRule type="expression" dxfId="8" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H5:BO39">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>PercentCompleteBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>Actual</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>ActualBeyond</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="11">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="12">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates plan duration" sqref="J2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration" sqref="P2" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates actual duration beyond plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This legend cell indicates the percentage of project completed beyond plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Periods are charted from 1 to 60 starting from cell H4 to cell BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter activity in column B, starting with cell B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan start period in column C, starting with cell C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter plan duration period in column D, starting with cell D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2012,4 +1908,10 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/Gantt chart group33.xlsx
+++ b/Gantt chart group33.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustinekim/Desktop/Software-TechICT-Group33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1288152-9B2E-1F4F-8F36-EDF9330F621B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A97C6F2-BBA5-8B41-84D8-3DD23344BD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="37300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,19 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -43,9 +54,6 @@
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 20</t>
   </si>
   <si>
     <t>Activity 21</t>
@@ -201,9 +209,6 @@
     <t>Activity 35</t>
   </si>
   <si>
-    <t>Project Title</t>
-  </si>
-  <si>
     <t>Project Scope</t>
   </si>
   <si>
@@ -259,13 +264,19 @@
   </si>
   <si>
     <t xml:space="preserve">Software Response Testing </t>
+  </si>
+  <si>
+    <t>Software Architecture Requirement</t>
+  </si>
+  <si>
+    <t>Victoris State Accident DataSet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -301,17 +312,20 @@
       <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -371,6 +385,21 @@
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -568,7 +597,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -596,9 +625,6 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -641,6 +667,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -653,37 +712,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -735,19 +767,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -814,6 +833,19 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -1088,8 +1120,8 @@
   </sheetPr>
   <dimension ref="B1:BO39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AT17" sqref="AT17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1106,122 +1138,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="14">
+        <v>8</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="19"/>
+      <c r="AI2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ2" s="22"/>
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="22"/>
+      <c r="AM2" s="22"/>
+      <c r="AN2" s="22"/>
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="22"/>
+    </row>
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="15">
-        <v>1</v>
-      </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="35"/>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-    </row>
-    <row r="3" spans="2:67" s="12" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="D3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="F3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="G3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="H3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1404,67 +1436,98 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
-        <v>32</v>
+      <c r="B5" s="23" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="7">
+        <f>C7+D7</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="7">
+        <v>3</v>
+      </c>
+      <c r="E8" s="7">
+        <f>E7+F7</f>
+        <v>6</v>
+      </c>
+      <c r="F8" s="7">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:C24" si="0">C8+D8</f>
+        <v>9</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="8">
@@ -1472,11 +1535,16 @@
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="8">
@@ -1484,23 +1552,33 @@
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D12" s="38">
+        <v>2</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="8">
@@ -1508,11 +1586,16 @@
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="B13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="8">
@@ -1520,11 +1603,16 @@
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="B14" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="8">
@@ -1532,11 +1620,16 @@
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="8">
@@ -1544,11 +1637,16 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
+      <c r="B16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>3</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="8">
@@ -1556,11 +1654,16 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="8">
@@ -1568,11 +1671,16 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="D18" s="7">
+        <v>4</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="8">
@@ -1580,11 +1688,16 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D19" s="7">
+        <v>5</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="8">
@@ -1592,11 +1705,16 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
+      <c r="B20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8">
@@ -1604,11 +1722,16 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <v>7</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="8">
@@ -1616,11 +1739,16 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+      <c r="B22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8">
@@ -1628,11 +1756,16 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="B23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8">
@@ -1640,11 +1773,16 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="D24" s="7">
         <v>2</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
@@ -1653,7 +1791,7 @@
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1665,7 +1803,7 @@
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1677,7 +1815,7 @@
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1689,7 +1827,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1701,7 +1839,7 @@
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1713,7 +1851,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1725,7 +1863,7 @@
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1737,7 +1875,7 @@
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1749,7 +1887,7 @@
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1761,7 +1899,7 @@
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1773,7 +1911,7 @@
     </row>
     <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1785,7 +1923,7 @@
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1797,7 +1935,7 @@
     </row>
     <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1809,7 +1947,7 @@
     </row>
     <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1821,7 +1959,7 @@
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1833,17 +1971,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BO4">
     <cfRule type="expression" dxfId="8" priority="8">
@@ -1851,23 +1989,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>PercentComplete</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(COLUMN(),2)</formula>

--- a/Gantt chart group33.xlsx
+++ b/Gantt chart group33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustinekim/Desktop/Software-TechICT-Group33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A97C6F2-BBA5-8B41-84D8-3DD23344BD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89F2E2-FFC4-BD4D-819C-2F9603CBE804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="500" windowWidth="20480" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20480" yWindow="980" windowWidth="20480" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -48,30 +48,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>PERIODS</t>
   </si>
   <si>
     <t>ACTIVITY</t>
-  </si>
-  <si>
-    <t>Activity 21</t>
-  </si>
-  <si>
-    <t>Activity 22</t>
-  </si>
-  <si>
-    <t>Activity 23</t>
-  </si>
-  <si>
-    <t>Activity 24</t>
-  </si>
-  <si>
-    <t>Activity 25</t>
-  </si>
-  <si>
-    <t>Activity 26</t>
   </si>
   <si>
     <r>
@@ -182,101 +164,65 @@
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
   <si>
-    <t>Activity 27</t>
-  </si>
-  <si>
-    <t>Activity 28</t>
-  </si>
-  <si>
-    <t>Activity 29</t>
-  </si>
-  <si>
-    <t>Activity 30</t>
-  </si>
-  <si>
-    <t>Activity 31</t>
-  </si>
-  <si>
-    <t>Activity 32</t>
-  </si>
-  <si>
-    <t>Activity 33</t>
-  </si>
-  <si>
-    <t>Activity 34</t>
-  </si>
-  <si>
-    <t>Activity 35</t>
-  </si>
-  <si>
-    <t>Project Scope</t>
-  </si>
-  <si>
-    <t>Project Background</t>
-  </si>
-  <si>
-    <t>WBS</t>
-  </si>
-  <si>
-    <t>Project Manangement Plan</t>
-  </si>
-  <si>
-    <t>Server Management Plan</t>
-  </si>
-  <si>
-    <t>Stakeholder Requirement</t>
-  </si>
-  <si>
-    <t>Software Design Requirement</t>
-  </si>
-  <si>
-    <t>Server Desgin</t>
-  </si>
-  <si>
-    <t>UI Design</t>
-  </si>
-  <si>
-    <t>Analysis Software Architecture</t>
-  </si>
-  <si>
-    <t>Design Software Architecture</t>
-  </si>
-  <si>
-    <t>Development Software  Architecture</t>
-  </si>
-  <si>
-    <t>Design Server Architecture</t>
-  </si>
-  <si>
-    <t>Development of Software Architecture</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Development </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Server Development </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UI Development </t>
-  </si>
-  <si>
-    <t>Software Design Testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Response Testing </t>
-  </si>
-  <si>
-    <t>Software Architecture Requirement</t>
-  </si>
-  <si>
     <t>Victoris State Accident DataSet</t>
+  </si>
+  <si>
+    <t>1.1 initation</t>
+  </si>
+  <si>
+    <t>1.2 Planning WBS and Activity Deinition &amp; Estimation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.2 Software Requirement </t>
+  </si>
+  <si>
+    <t>2.3 Use cases &amp; Diagram</t>
+  </si>
+  <si>
+    <t>2.1 User Requrieemnt</t>
+  </si>
+  <si>
+    <t>2.4 User Manual</t>
+  </si>
+  <si>
+    <t>3.1 UI Design</t>
+  </si>
+  <si>
+    <t>3.2 System component</t>
+  </si>
+  <si>
+    <t>3.3 Software Architecture</t>
+  </si>
+  <si>
+    <t>3.4 Server Architecture</t>
+  </si>
+  <si>
+    <t>4.1 Software Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2 Server Development </t>
+  </si>
+  <si>
+    <t>4.3 UI Development</t>
+  </si>
+  <si>
+    <t>5.1 Unit Testing</t>
+  </si>
+  <si>
+    <t>5.2 Requirement Testing</t>
+  </si>
+  <si>
+    <t>6.1 Executive Summary</t>
+  </si>
+  <si>
+    <t>6.2 Executive Full-Testing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -395,11 +341,16 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Corbel"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Corbel (Headings)"/>
     </font>
   </fonts>
   <fills count="8">
@@ -597,7 +548,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,18 +618,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -700,22 +663,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -767,6 +721,19 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -833,19 +800,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
@@ -1121,7 +1075,7 @@
   <dimension ref="B1:BO39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1133,13 +1087,14 @@
     <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="27" width="2.83203125" style="1"/>
+    <col min="8" max="8" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="27" width="2.83203125" style="1"/>
     <col min="42" max="42" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1148,54 +1103,54 @@
       <c r="G1" s="12"/>
     </row>
     <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
+      <c r="B2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
       <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="14">
+        <v>25</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="14">
-        <v>8</v>
-      </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="33"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="33"/>
+      <c r="V2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="37"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="32"/>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="33"/>
+      <c r="AA2" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="36"/>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AJ2" s="22"/>
       <c r="AK2" s="22"/>
@@ -1206,23 +1161,23 @@
       <c r="AP2" s="22"/>
     </row>
     <row r="3" spans="2:67" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>16</v>
+      <c r="C3" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="H3" s="20" t="s">
         <v>0</v>
@@ -1248,12 +1203,12 @@
       <c r="AA3" s="10"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="36"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1436,79 +1391,80 @@
       </c>
     </row>
     <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23" t="s">
-        <v>30</v>
+      <c r="B5" s="38" t="s">
+        <v>15</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
       <c r="F5" s="7">
+        <v>2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" ref="C5:C10" si="0">C5+D5</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
       <c r="E6" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="24" t="s">
-        <v>31</v>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="7">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="7">
         <v>4</v>
       </c>
       <c r="F7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
-        <v>32</v>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="C8" s="7">
-        <f>C7+D7</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D8" s="7">
         <v>3</v>
       </c>
       <c r="E8" s="7">
-        <f>E7+F7</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="7">
         <v>3</v>
@@ -1518,117 +1474,144 @@
       </c>
     </row>
     <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
-        <v>33</v>
+      <c r="B9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" ref="C9:C24" si="0">C8+D8</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>3</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2</v>
+      </c>
       <c r="G9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="24" t="s">
-        <v>34</v>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
       <c r="G10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
-        <v>35</v>
+      <c r="B11" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="7">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <f t="shared" ref="C9:E24" si="1">C10+D10</f>
+        <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F11" s="7">
+        <v>3</v>
+      </c>
       <c r="G11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="39" t="s">
-        <v>48</v>
+      <c r="B12" s="40" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="D12" s="38">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="24">
+        <v>3</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
+        <v>3</v>
+      </c>
       <c r="G12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="24" t="s">
-        <v>36</v>
+      <c r="B13" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>2</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F13" s="7">
+        <v>4</v>
+      </c>
       <c r="G13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="24" t="s">
-        <v>37</v>
+      <c r="B14" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="7">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="E14" s="7">
+        <v>23</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
       <c r="G14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="24" t="s">
-        <v>38</v>
+      <c r="B15" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="7">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f t="shared" si="1"/>
+        <v>25</v>
       </c>
       <c r="D15" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -1637,15 +1620,15 @@
       </c>
     </row>
     <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="24" t="s">
-        <v>39</v>
+      <c r="B16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1654,12 +1637,12 @@
       </c>
     </row>
     <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
-        <v>40</v>
+      <c r="B17" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="7">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f t="shared" si="1"/>
+        <v>42</v>
       </c>
       <c r="D17" s="7">
         <v>4</v>
@@ -1671,15 +1654,15 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
-        <v>41</v>
+      <c r="B18" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f t="shared" si="1"/>
+        <v>46</v>
       </c>
       <c r="D18" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1688,15 +1671,15 @@
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="24" t="s">
-        <v>42</v>
+      <c r="B19" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <f t="shared" si="1"/>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
@@ -1705,15 +1688,15 @@
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="24" t="s">
-        <v>43</v>
+      <c r="B20" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <f t="shared" si="0"/>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>50</v>
       </c>
       <c r="D20" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1722,15 +1705,15 @@
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="24" t="s">
-        <v>44</v>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="C21" s="7">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1739,16 +1722,9 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="7">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
+      <c r="B22" s="23"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8">
@@ -1756,16 +1732,9 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="7">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="D23" s="7">
-        <v>2</v>
-      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="8">
@@ -1773,16 +1742,9 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="8">
@@ -1790,9 +1752,7 @@
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="B25" s="6"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1802,9 +1762,7 @@
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
@@ -1814,9 +1772,7 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -1826,9 +1782,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1838,9 +1792,7 @@
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
@@ -1850,9 +1802,7 @@
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -1862,9 +1812,7 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="6" t="s">
-        <v>20</v>
-      </c>
+      <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
@@ -1874,9 +1822,7 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1886,9 +1832,7 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="6" t="s">
-        <v>22</v>
-      </c>
+      <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
@@ -1898,9 +1842,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
+      <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -1910,9 +1852,7 @@
       </c>
     </row>
     <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
@@ -1922,9 +1862,7 @@
       </c>
     </row>
     <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1934,9 +1872,7 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -1946,9 +1882,7 @@
       </c>
     </row>
     <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
@@ -1958,9 +1892,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1971,17 +1903,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="AA2:AG2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="AA2:AG2"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BO4">
     <cfRule type="expression" dxfId="8" priority="8">
@@ -1989,23 +1921,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>PercentComplete</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(COLUMN(),2)</formula>

--- a/Gantt chart group33.xlsx
+++ b/Gantt chart group33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustinekim/Desktop/Software-TechICT-Group33/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/ann_tapiador_griffithuni_edu_au/Documents/04. Software Technologies/Assignments_GIT/Assignment 1/Software-TechICT-Group33/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF89F2E2-FFC4-BD4D-819C-2F9603CBE804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{BF89F2E2-FFC4-BD4D-819C-2F9603CBE804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3248FEED-6B45-438F-B42B-110A7222A6C2}"/>
   <bookViews>
-    <workbookView xWindow="20480" yWindow="980" windowWidth="20480" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="PeriodInActual">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$E1,'Project Planner'!$E1+'Project Planner'!$F1-1)</definedName>
     <definedName name="PeriodInPlan">'Project Planner'!A$4=MEDIAN('Project Planner'!A$4,'Project Planner'!$C1,'Project Planner'!$C1+'Project Planner'!$D1-1)</definedName>
     <definedName name="Plan">PeriodInPlan*('Project Planner'!$C1&gt;0)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project Planner'!$A$1:$BN$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
@@ -164,25 +165,7 @@
     <t>Select a period to highlight at right.  A legend describing the charting follows.</t>
   </si>
   <si>
-    <t>Victoris State Accident DataSet</t>
-  </si>
-  <si>
-    <t>1.1 initation</t>
-  </si>
-  <si>
-    <t>1.2 Planning WBS and Activity Deinition &amp; Estimation</t>
-  </si>
-  <si>
     <t xml:space="preserve">2.2 Software Requirement </t>
-  </si>
-  <si>
-    <t>2.3 Use cases &amp; Diagram</t>
-  </si>
-  <si>
-    <t>2.1 User Requrieemnt</t>
-  </si>
-  <si>
-    <t>2.4 User Manual</t>
   </si>
   <si>
     <t>3.1 UI Design</t>
@@ -217,12 +200,33 @@
   <si>
     <t>6.2 Executive Full-Testing</t>
   </si>
+  <si>
+    <t>Victoria State Accident Data</t>
+  </si>
+  <si>
+    <t>4.4 User Manual</t>
+  </si>
+  <si>
+    <t>1.2 Planning WBS and Activity Definition &amp; Estimation</t>
+  </si>
+  <si>
+    <t>2.1 User Requirement</t>
+  </si>
+  <si>
+    <t>2.3 Use Cases &amp; Diagram</t>
+  </si>
+  <si>
+    <t>1.1 Initiation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="mmm\ dd"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -396,7 +400,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -482,12 +486,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="7"/>
+      </top>
+      <bottom style="thin">
+        <color theme="7"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -548,7 +565,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -624,6 +641,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -663,14 +686,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="8" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -721,19 +747,6 @@
         </bottom>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -810,6 +823,19 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
@@ -839,6 +865,943 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>212379</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>89114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119532</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connector: Elbow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F9CACF-53C6-F1A2-1786-A71E7AB117EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="6836923" y="1398335"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170544</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>256455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>77697</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32874</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connector: Elbow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7236001C-196D-465D-9C6C-D6974E1DA6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7011735" y="1782323"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>173533</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>80686</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50803</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48BD5183-A000-4171-920B-9E3F86FD803E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="7664665" y="2099076"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>154110</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>61263</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>53791</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Connector: Elbow 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0B6805-4532-4B55-8020-8B0265047D3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8295183" y="2400887"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>172040</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>79193</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53623E16-4F29-4F40-B499-82DBA876A017}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8746407" y="2710169"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171634</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144804</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>78787</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>18340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Elbow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A413713B-34A5-486F-B950-B2B1DC1CCCBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9430579" y="2962404"/>
+          <a:ext cx="173718" cy="126517"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>178016</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>85169</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40343</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1700913-9C7D-456F-9E5F-00AD4FC02335}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10095051" y="3284589"/>
+          <a:ext cx="173719" cy="126517"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>166062</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>139912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>73215</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>13448</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Connector: Elbow 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5816F783-EC2D-43CB-AD01-BBB858B1991B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="10906900" y="3555839"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>183992</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157841</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>91145</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31378</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Connector: Elbow 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2700A2F2-6482-4B15-9FCD-565892849C20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="11358124" y="3872592"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>164568</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>71720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19425</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A45EF3-A81A-4AEC-8128-910B28093089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="13938464" y="4159463"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>137673</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171289</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>44826</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connector: Elbow 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6079C9B-6842-4ADB-846A-AA3F95617618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="14994805" y="4483687"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>170545</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>144395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>77698</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Connector: Elbow 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C7B4F2-21B7-498C-B9F0-E290CB1E1E2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="15894265" y="4755616"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>151122</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>154853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>58275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28390</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Connector: Elbow 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845E276C-D394-49FA-82EF-3CCBC430D46E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="16741430" y="5064898"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>161581</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>165313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>68734</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38849</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Connector: Elbow 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB61022-74EE-4C06-A415-5C83CAEE1B0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="17185183" y="5374181"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>157099</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>64251</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11955</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connector: Elbow 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B425F6E-D872-4E91-B785-451A3B743D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="17613995" y="5646110"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>167558</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148878</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>74711</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22414</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Connector: Elbow 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFBC63E-DA1F-4FAB-B0B0-694A273D9B2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="18274396" y="5955393"/>
+          <a:ext cx="172360" cy="123800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -2011"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1072,29 +2035,29 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BO39"/>
+  <dimension ref="B1:BO40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="27" width="2.83203125" style="1"/>
-    <col min="42" max="42" width="2.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.58203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.9140625" style="4" customWidth="1"/>
+    <col min="8" max="27" width="2.58203125" style="1" customWidth="1"/>
+    <col min="28" max="43" width="2.58203125" customWidth="1"/>
+    <col min="44" max="66" width="2.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.85">
+    <row r="1" spans="2:67" ht="54.5" thickBot="1">
       <c r="B1" s="13" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -1102,52 +2065,52 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:67" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="35"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="35" t="s">
+      <c r="V2" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="37"/>
+      <c r="W2" s="38"/>
+      <c r="X2" s="38"/>
+      <c r="Y2" s="39"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="35" t="s">
+      <c r="AA2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="37"/>
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="38"/>
+      <c r="AD2" s="38"/>
+      <c r="AE2" s="38"/>
+      <c r="AF2" s="38"/>
+      <c r="AG2" s="39"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
         <v>4</v>
@@ -1160,23 +2123,23 @@
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="40" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="15" thickTop="1">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="32" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -1202,13 +2165,13 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="27"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+    <row r="4" spans="2:67" ht="14.5">
+      <c r="B4" s="29"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -1390,225 +2353,451 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7">
+    <row r="5" spans="2:67" ht="36.5" customHeight="1">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="43">
+        <v>41499</v>
+      </c>
+      <c r="I5" s="43">
+        <f>H5+1</f>
+        <v>41500</v>
+      </c>
+      <c r="J5" s="43">
+        <f t="shared" ref="J5:BO5" si="0">I5+1</f>
+        <v>41501</v>
+      </c>
+      <c r="K5" s="43">
+        <f t="shared" si="0"/>
+        <v>41502</v>
+      </c>
+      <c r="L5" s="43">
+        <f t="shared" si="0"/>
+        <v>41503</v>
+      </c>
+      <c r="M5" s="43">
+        <f t="shared" si="0"/>
+        <v>41504</v>
+      </c>
+      <c r="N5" s="43">
+        <f t="shared" si="0"/>
+        <v>41505</v>
+      </c>
+      <c r="O5" s="43">
+        <f t="shared" si="0"/>
+        <v>41506</v>
+      </c>
+      <c r="P5" s="43">
+        <f t="shared" si="0"/>
+        <v>41507</v>
+      </c>
+      <c r="Q5" s="43">
+        <f t="shared" si="0"/>
+        <v>41508</v>
+      </c>
+      <c r="R5" s="43">
+        <f t="shared" si="0"/>
+        <v>41509</v>
+      </c>
+      <c r="S5" s="43">
+        <f t="shared" si="0"/>
+        <v>41510</v>
+      </c>
+      <c r="T5" s="43">
+        <f t="shared" si="0"/>
+        <v>41511</v>
+      </c>
+      <c r="U5" s="43">
+        <f t="shared" si="0"/>
+        <v>41512</v>
+      </c>
+      <c r="V5" s="43">
+        <f t="shared" si="0"/>
+        <v>41513</v>
+      </c>
+      <c r="W5" s="43">
+        <f t="shared" si="0"/>
+        <v>41514</v>
+      </c>
+      <c r="X5" s="43">
+        <f t="shared" si="0"/>
+        <v>41515</v>
+      </c>
+      <c r="Y5" s="43">
+        <f t="shared" si="0"/>
+        <v>41516</v>
+      </c>
+      <c r="Z5" s="43">
+        <f t="shared" si="0"/>
+        <v>41517</v>
+      </c>
+      <c r="AA5" s="43">
+        <f t="shared" si="0"/>
+        <v>41518</v>
+      </c>
+      <c r="AB5" s="43">
+        <f t="shared" si="0"/>
+        <v>41519</v>
+      </c>
+      <c r="AC5" s="43">
+        <f t="shared" si="0"/>
+        <v>41520</v>
+      </c>
+      <c r="AD5" s="43">
+        <f t="shared" si="0"/>
+        <v>41521</v>
+      </c>
+      <c r="AE5" s="43">
+        <f t="shared" si="0"/>
+        <v>41522</v>
+      </c>
+      <c r="AF5" s="43">
+        <f t="shared" si="0"/>
+        <v>41523</v>
+      </c>
+      <c r="AG5" s="43">
+        <f t="shared" si="0"/>
+        <v>41524</v>
+      </c>
+      <c r="AH5" s="43">
+        <f t="shared" si="0"/>
+        <v>41525</v>
+      </c>
+      <c r="AI5" s="43">
+        <f t="shared" si="0"/>
+        <v>41526</v>
+      </c>
+      <c r="AJ5" s="43">
+        <f t="shared" si="0"/>
+        <v>41527</v>
+      </c>
+      <c r="AK5" s="43">
+        <f t="shared" si="0"/>
+        <v>41528</v>
+      </c>
+      <c r="AL5" s="43">
+        <f t="shared" si="0"/>
+        <v>41529</v>
+      </c>
+      <c r="AM5" s="43">
+        <f t="shared" si="0"/>
+        <v>41530</v>
+      </c>
+      <c r="AN5" s="43">
+        <f t="shared" si="0"/>
+        <v>41531</v>
+      </c>
+      <c r="AO5" s="43">
+        <f t="shared" si="0"/>
+        <v>41532</v>
+      </c>
+      <c r="AP5" s="43">
+        <f t="shared" si="0"/>
+        <v>41533</v>
+      </c>
+      <c r="AQ5" s="43">
+        <f t="shared" si="0"/>
+        <v>41534</v>
+      </c>
+      <c r="AR5" s="43">
+        <f t="shared" si="0"/>
+        <v>41535</v>
+      </c>
+      <c r="AS5" s="43">
+        <f t="shared" si="0"/>
+        <v>41536</v>
+      </c>
+      <c r="AT5" s="43">
+        <f t="shared" si="0"/>
+        <v>41537</v>
+      </c>
+      <c r="AU5" s="43">
+        <f t="shared" si="0"/>
+        <v>41538</v>
+      </c>
+      <c r="AV5" s="43">
+        <f t="shared" si="0"/>
+        <v>41539</v>
+      </c>
+      <c r="AW5" s="43">
+        <f t="shared" si="0"/>
+        <v>41540</v>
+      </c>
+      <c r="AX5" s="43">
+        <f t="shared" si="0"/>
+        <v>41541</v>
+      </c>
+      <c r="AY5" s="43">
+        <f t="shared" si="0"/>
+        <v>41542</v>
+      </c>
+      <c r="AZ5" s="43">
+        <f t="shared" si="0"/>
+        <v>41543</v>
+      </c>
+      <c r="BA5" s="43">
+        <f t="shared" si="0"/>
+        <v>41544</v>
+      </c>
+      <c r="BB5" s="43">
+        <f t="shared" si="0"/>
+        <v>41545</v>
+      </c>
+      <c r="BC5" s="43">
+        <f t="shared" si="0"/>
+        <v>41546</v>
+      </c>
+      <c r="BD5" s="43">
+        <f t="shared" si="0"/>
+        <v>41547</v>
+      </c>
+      <c r="BE5" s="43">
+        <f t="shared" si="0"/>
+        <v>41548</v>
+      </c>
+      <c r="BF5" s="43">
+        <f t="shared" si="0"/>
+        <v>41549</v>
+      </c>
+      <c r="BG5" s="43">
+        <f t="shared" si="0"/>
+        <v>41550</v>
+      </c>
+      <c r="BH5" s="43">
+        <f t="shared" si="0"/>
+        <v>41551</v>
+      </c>
+      <c r="BI5" s="43">
+        <f t="shared" si="0"/>
+        <v>41552</v>
+      </c>
+      <c r="BJ5" s="43">
+        <f t="shared" si="0"/>
+        <v>41553</v>
+      </c>
+      <c r="BK5" s="43">
+        <f t="shared" si="0"/>
+        <v>41554</v>
+      </c>
+      <c r="BL5" s="43">
+        <f t="shared" si="0"/>
+        <v>41555</v>
+      </c>
+      <c r="BM5" s="43">
+        <f t="shared" si="0"/>
+        <v>41556</v>
+      </c>
+      <c r="BN5" s="43">
+        <f t="shared" si="0"/>
+        <v>41557</v>
+      </c>
+      <c r="BO5" s="43">
+        <f t="shared" si="0"/>
+        <v>41558</v>
+      </c>
+    </row>
+    <row r="6" spans="2:67">
+      <c r="B6" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" ref="C5:C10" si="0">C5+D5</f>
+      <c r="G6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:67" ht="38.5" customHeight="1">
+      <c r="B7" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ref="C7:C21" si="1">C6+D6</f>
         <v>3</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>3</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="0"/>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:67" ht="30" customHeight="1">
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="1"/>
         <v>4</v>
-      </c>
-      <c r="D7" s="7">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7">
-        <v>4</v>
-      </c>
-      <c r="F7" s="7">
-        <v>3</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="7">
-        <f t="shared" si="0"/>
-        <v>7</v>
       </c>
       <c r="D8" s="7">
         <v>3</v>
       </c>
       <c r="E8" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8" s="7">
         <v>3</v>
       </c>
       <c r="G8" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:67" ht="30" customHeight="1">
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>7</v>
+      </c>
+      <c r="F9" s="7">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:67" ht="30" customHeight="1">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>10</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>2</v>
       </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="7">
-        <f t="shared" si="0"/>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:67" ht="30" customHeight="1">
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="1"/>
         <v>12</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>12</v>
-      </c>
-      <c r="F10" s="7">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="7">
-        <f t="shared" ref="C9:E24" si="1">C10+D10</f>
-        <v>13</v>
       </c>
       <c r="D11" s="7">
         <v>3</v>
       </c>
       <c r="E11" s="7">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <f>E10+F10</f>
+        <v>12</v>
       </c>
       <c r="F11" s="7">
         <v>3</v>
       </c>
       <c r="G11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="40" t="s">
-        <v>22</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:67" ht="30" customHeight="1">
+      <c r="B12" s="26" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="24">
         <v>3</v>
       </c>
       <c r="E12" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" ref="E12:E13" si="2">E11+F11</f>
+        <v>15</v>
       </c>
       <c r="F12" s="7">
         <v>3</v>
       </c>
       <c r="G12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:67" ht="30" customHeight="1">
       <c r="B13" s="6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
         <v>4</v>
       </c>
       <c r="E13" s="7">
-        <f t="shared" si="1"/>
-        <v>19</v>
+        <f t="shared" si="2"/>
+        <v>18</v>
       </c>
       <c r="F13" s="7">
         <v>4</v>
       </c>
       <c r="G13" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:67" ht="30" customHeight="1">
       <c r="B14" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7">
         <v>2</v>
       </c>
       <c r="G14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="30" customHeight="1">
       <c r="B15" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="7">
         <v>12</v>
@@ -1619,13 +2808,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:67" ht="30" customHeight="1">
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
         <v>5</v>
@@ -1636,13 +2825,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" ht="30" customHeight="1">
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="1"/>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="7">
         <v>4</v>
@@ -1653,16 +2842,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="30" customHeight="1">
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
@@ -1670,13 +2859,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D19" s="7">
         <v>2</v>
@@ -1687,16 +2876,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="30" customHeight="1">
       <c r="B20" s="6" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1704,16 +2893,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="30" customHeight="1">
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="D21" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1721,17 +2910,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
+    <row r="22" spans="2:7" ht="30" customHeight="1">
+      <c r="B22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" ref="C22" si="3">C21+D21</f>
+        <v>56</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7">
       <c r="B23" s="23"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1741,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7">
       <c r="B24" s="23"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1751,8 +2947,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="6"/>
+    <row r="25" spans="2:7">
+      <c r="B25" s="23"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1761,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7">
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1771,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7">
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1781,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7">
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1791,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7">
       <c r="B29" s="6"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1801,7 +2997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="B30" s="6"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1811,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="B31" s="6"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1821,7 +3017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1831,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1841,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1851,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1861,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1871,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1881,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1891,13 +3087,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="8">
         <v>0</v>
       </c>
     </row>
@@ -1920,24 +3126,24 @@
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:BO39">
-    <cfRule type="expression" dxfId="7" priority="3">
+  <conditionalFormatting sqref="H6:BO40">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>PercentComplete</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>H$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1">
-      <formula>PercentComplete</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="11">
       <formula>MOD(COLUMN(),2)</formula>
@@ -1947,7 +3153,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="16">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1 A5" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Type a value from 1 to 60 or select a period from the list-press  CANCEL, ALT+DOWN ARROW, then ENTER to select a value" prompt="Enter a period in the range of 1 to 60 or select a period from the list. Press ALT+DOWN ARROW to navigate the list, then ENTER to select a value" sqref="H2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60"</formula1>
     </dataValidation>
@@ -1963,15 +3169,16 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual start period in column E, starting with cell E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter actual duration period in column F, starting with cell F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter the percentage of project completed in column G, starting with cell G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the project. Enter a new title in this cell. Highlight a period in H2. Chart legend is in J2 to AI2" sqref="B1 B5" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select a period to highlight in H2. A Chart legend is in J2 to AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="54" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Gantt chart group33.xlsx
+++ b/Gantt chart group33.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://griffitheduau-my.sharepoint.com/personal/ann_tapiador_griffithuni_edu_au/Documents/04. Software Technologies/Assignments_GIT/Assignment 1/Software-TechICT-Group33/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/496e73b00c67b742/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="13_ncr:1_{BF89F2E2-FFC4-BD4D-819C-2F9603CBE804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3248FEED-6B45-438F-B42B-110A7222A6C2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E6E785EB-30F1-4F28-A8C2-BCCAA309C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9EDC8471-2397-491F-8122-E24D58CD4E75}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>PERIODS</t>
   </si>
@@ -171,42 +171,15 @@
     <t>3.1 UI Design</t>
   </si>
   <si>
-    <t>3.2 System component</t>
-  </si>
-  <si>
     <t>3.3 Software Architecture</t>
   </si>
   <si>
-    <t>3.4 Server Architecture</t>
-  </si>
-  <si>
-    <t>4.1 Software Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2 Server Development </t>
-  </si>
-  <si>
-    <t>4.3 UI Development</t>
-  </si>
-  <si>
     <t>5.1 Unit Testing</t>
   </si>
   <si>
     <t>5.2 Requirement Testing</t>
   </si>
   <si>
-    <t>6.1 Executive Summary</t>
-  </si>
-  <si>
-    <t>6.2 Executive Full-Testing</t>
-  </si>
-  <si>
-    <t>Victoria State Accident Data</t>
-  </si>
-  <si>
-    <t>4.4 User Manual</t>
-  </si>
-  <si>
     <t>1.2 Planning WBS and Activity Definition &amp; Estimation</t>
   </si>
   <si>
@@ -217,6 +190,60 @@
   </si>
   <si>
     <t>1.1 Initiation</t>
+  </si>
+  <si>
+    <t>Victoria State Accident Dashboard</t>
+  </si>
+  <si>
+    <t>6.3 Change Document</t>
+  </si>
+  <si>
+    <t>3.2 System Component</t>
+  </si>
+  <si>
+    <t>4.2 Unit Integration</t>
+  </si>
+  <si>
+    <t>6.1 Project Plan Update</t>
+  </si>
+  <si>
+    <t>6.2 Software Design Document Update</t>
+  </si>
+  <si>
+    <t>4.1 Unit Programming</t>
+  </si>
+  <si>
+    <t>4.3 UI Programming</t>
+  </si>
+  <si>
+    <t>4.4 UI Integration</t>
+  </si>
+  <si>
+    <t>4.5 User Manual</t>
+  </si>
+  <si>
+    <t>6.4 Software Test Report</t>
+  </si>
+  <si>
+    <t>6.5 Executive Summary</t>
+  </si>
+  <si>
+    <t>6.6 Executive Full-Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1.1 Use Case 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1.2 Use Case 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1.3 Use Case 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1.4 Use Case 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.1.5 Use Case 5</t>
   </si>
 </sst>
 </file>
@@ -226,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmm\ dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -330,13 +357,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Corbel"/>
@@ -352,9 +372,11 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
-      <name val="Corbel (Headings)"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -565,7 +587,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -635,18 +657,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="8" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
@@ -685,18 +716,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="8" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -720,7 +739,7 @@
     <cellStyle name="Project Headers" xfId="4" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -837,6 +856,54 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -903,7 +970,7 @@
             <a:gd name="adj1" fmla="val -2011"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -961,7 +1028,7 @@
             <a:gd name="adj1" fmla="val -2011"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1019,7 +1086,7 @@
             <a:gd name="adj1" fmla="val -2011"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1077,7 +1144,7 @@
             <a:gd name="adj1" fmla="val -2011"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1135,7 +1202,7 @@
             <a:gd name="adj1" fmla="val -2011"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1193,7 +1260,7 @@
             <a:gd name="adj1" fmla="val -2011"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1251,7 +1318,7 @@
             <a:gd name="adj1" fmla="val -2011"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1283,10 +1350,10 @@
       <xdr:rowOff>139912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>73215</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>13448</xdr:rowOff>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9769</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1300,422 +1367,16 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="10906900" y="3555839"/>
-          <a:ext cx="172360" cy="123800"/>
+        <a:xfrm>
+          <a:off x="10106254" y="4057374"/>
+          <a:ext cx="6564938" cy="426703"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
+            <a:gd name="adj1" fmla="val 100000"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>183992</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>157841</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>91145</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>31378</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Connector: Elbow 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2700A2F2-6482-4B15-9FCD-565892849C20}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="11358124" y="3872592"/>
-          <a:ext cx="172360" cy="123800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>164568</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145889</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>71720</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>19425</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Connector: Elbow 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A45EF3-A81A-4AEC-8128-910B28093089}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="13938464" y="4159463"/>
-          <a:ext cx="172360" cy="123800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>137673</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171289</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>44826</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>44826</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Connector: Elbow 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6079C9B-6842-4ADB-846A-AA3F95617618}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="14994805" y="4483687"/>
-          <a:ext cx="172360" cy="123800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>170545</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>144395</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>77698</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>17931</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Connector: Elbow 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74C7B4F2-21B7-498C-B9F0-E290CB1E1E2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="15894265" y="4755616"/>
-          <a:ext cx="172360" cy="123800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>151122</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>154853</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>58275</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28390</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Connector: Elbow 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845E276C-D394-49FA-82EF-3CCBC430D46E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="16741430" y="5064898"/>
-          <a:ext cx="172360" cy="123800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>161581</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>165313</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>68734</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38849</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Connector: Elbow 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BB61022-74EE-4C06-A415-5C83CAEE1B0A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="17185183" y="5374181"/>
-          <a:ext cx="172360" cy="123800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>157099</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>64251</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>11955</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Connector: Elbow 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B425F6E-D872-4E91-B785-451A3B743D02}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="17613995" y="5646110"/>
-          <a:ext cx="172360" cy="123800"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1742,22 +1403,750 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>167558</xdr:colOff>
+      <xdr:colOff>91411</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>91412</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>64895</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E054086-64A1-9EAB-90AB-A2593CBAE81B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16674680" y="4575490"/>
+          <a:ext cx="1" cy="242136"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>94481</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>94482</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA237F3-7976-4572-9245-0D6FDF496782}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16677750" y="4859775"/>
+          <a:ext cx="1" cy="242136"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>87782</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>159660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>87783</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123372</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC589426-ADDD-4E94-A76A-F1EF2A726BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16671051" y="5190814"/>
+          <a:ext cx="1" cy="242135"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>95041</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>95042</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138305</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EEED8E-1BCF-4F00-AC94-86F18C39872F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16678310" y="5484169"/>
+          <a:ext cx="1" cy="242136"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>98878</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>212274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>98879</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>175987</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D8C1E1-4933-463F-B3AB-5E31762CF9BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16761278" y="5806624"/>
+          <a:ext cx="1" cy="243113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>148878</xdr:rowOff>
+      <xdr:rowOff>170962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>97693</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{334279E8-5604-4718-8B89-EFEF04849F2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16839406" y="6298712"/>
+          <a:ext cx="2443" cy="210038"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>103075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>103075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105230</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{333F80B2-35BD-4A4B-A173-C7C9126B51A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16847231" y="6572250"/>
+          <a:ext cx="0" cy="216355"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>98879</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>131539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>98880</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9A51384-2FE7-4993-B06C-7946AFD5995C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16761279" y="6843489"/>
+          <a:ext cx="1" cy="243113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>99786</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>135168</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>99787</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98881</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3D8ECC1-CEED-4A74-A4FC-EF1B1B73AA40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16762186" y="7126518"/>
+          <a:ext cx="1" cy="243113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>189597</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>101601</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>153309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37DE282A-D127-4A2D-B2B1-5DED960B8778}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="7460347"/>
+          <a:ext cx="1" cy="243112"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>102507</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>235861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>102508</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>199574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08792DA8-9BE5-4930-A5DC-D324550DE769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764907" y="7786011"/>
+          <a:ext cx="1" cy="243113"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>74711</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22414</xdr:rowOff>
+      <xdr:colOff>116116</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>143330</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Connector: Elbow 30">
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFBC63E-DA1F-4FAB-B0B0-694A273D9B2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F465811B-D29D-4104-ADF0-C7BEA642EF22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16967200" y="8458200"/>
+          <a:ext cx="8166" cy="314780"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>211368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>127001</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1546E7D-2AC3-4751-8D96-705B5F41A23B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="17176750" y="9145818"/>
+          <a:ext cx="6351" cy="258532"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>133351</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>94025</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>40450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Connector: Elbow 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022895FB-C089-42C2-B8D3-D75174A82784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1765,15 +2154,129 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="18274396" y="5955393"/>
-          <a:ext cx="172360" cy="123800"/>
+          <a:off x="16759037" y="8171063"/>
+          <a:ext cx="230951" cy="157524"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -2011"/>
+            <a:gd name="adj1" fmla="val -2241"/>
           </a:avLst>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Connector: Elbow 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCDA6BB4-2057-4072-9124-253B4B88674A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="17014824" y="8912224"/>
+          <a:ext cx="190500" cy="120651"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6666"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>94640</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>230187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>134327</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D04E1A-E29E-4127-B3A1-CEA9575DBA49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16838796" y="6080125"/>
+          <a:ext cx="610" cy="181952"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2037,27 +2540,32 @@
   </sheetPr>
   <dimension ref="B1:BO40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane xSplit="6" ySplit="5" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.58203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.9140625" style="4" customWidth="1"/>
-    <col min="8" max="27" width="2.58203125" style="1" customWidth="1"/>
-    <col min="28" max="43" width="2.58203125" customWidth="1"/>
-    <col min="44" max="66" width="2.58203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="3.125" style="1" customWidth="1"/>
+    <col min="9" max="27" width="2.625" style="1" customWidth="1"/>
+    <col min="28" max="43" width="2.625" customWidth="1"/>
+    <col min="44" max="66" width="2.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="54.5" thickBot="1">
+    <row r="1" spans="2:67" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
       <c r="B1" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -2065,52 +2573,52 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="2:67" ht="16.5" thickTop="1" thickBot="1">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:67" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="14">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="J2" s="15"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="35"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
       <c r="P2" s="16"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="38"/>
       <c r="U2" s="17"/>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="W2" s="38"/>
-      <c r="X2" s="38"/>
-      <c r="Y2" s="39"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="42"/>
       <c r="Z2" s="18"/>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AB2" s="38"/>
-      <c r="AC2" s="38"/>
-      <c r="AD2" s="38"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="39"/>
+      <c r="AB2" s="41"/>
+      <c r="AC2" s="41"/>
+      <c r="AD2" s="41"/>
+      <c r="AE2" s="41"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="42"/>
       <c r="AH2" s="19"/>
       <c r="AI2" s="21" t="s">
         <v>4</v>
@@ -2123,23 +2631,23 @@
       <c r="AO2" s="22"/>
       <c r="AP2" s="22"/>
     </row>
-    <row r="3" spans="2:67" s="11" customFormat="1" ht="15" thickTop="1">
-      <c r="B3" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="30" t="s">
+    <row r="3" spans="2:67" s="11" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="35" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="20" t="s">
@@ -2165,13 +2673,13 @@
       <c r="Z3" s="10"/>
       <c r="AA3" s="10"/>
     </row>
-    <row r="4" spans="2:67" ht="14.5">
-      <c r="B4" s="29"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+    <row r="4" spans="2:67" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
       <c r="H4" s="3">
         <v>1</v>
       </c>
@@ -2353,256 +2861,256 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" ht="36.5" customHeight="1">
-      <c r="B5" s="41"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="43">
+    <row r="5" spans="2:67" ht="36.6" customHeight="1" x14ac:dyDescent="0.8">
+      <c r="B5" s="26"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="28">
         <v>41499</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="28">
         <f>H5+1</f>
         <v>41500</v>
       </c>
-      <c r="J5" s="43">
+      <c r="J5" s="28">
         <f t="shared" ref="J5:BO5" si="0">I5+1</f>
         <v>41501</v>
       </c>
-      <c r="K5" s="43">
+      <c r="K5" s="28">
         <f t="shared" si="0"/>
         <v>41502</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="28">
         <f t="shared" si="0"/>
         <v>41503</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="28">
         <f t="shared" si="0"/>
         <v>41504</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="28">
         <f t="shared" si="0"/>
         <v>41505</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="28">
         <f t="shared" si="0"/>
         <v>41506</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="28">
         <f t="shared" si="0"/>
         <v>41507</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="28">
         <f t="shared" si="0"/>
         <v>41508</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="28">
         <f t="shared" si="0"/>
         <v>41509</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="28">
         <f t="shared" si="0"/>
         <v>41510</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="28">
         <f t="shared" si="0"/>
         <v>41511</v>
       </c>
-      <c r="U5" s="43">
+      <c r="U5" s="28">
         <f t="shared" si="0"/>
         <v>41512</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="28">
         <f t="shared" si="0"/>
         <v>41513</v>
       </c>
-      <c r="W5" s="43">
+      <c r="W5" s="28">
         <f t="shared" si="0"/>
         <v>41514</v>
       </c>
-      <c r="X5" s="43">
+      <c r="X5" s="28">
         <f t="shared" si="0"/>
         <v>41515</v>
       </c>
-      <c r="Y5" s="43">
+      <c r="Y5" s="28">
         <f t="shared" si="0"/>
         <v>41516</v>
       </c>
-      <c r="Z5" s="43">
+      <c r="Z5" s="28">
         <f t="shared" si="0"/>
         <v>41517</v>
       </c>
-      <c r="AA5" s="43">
+      <c r="AA5" s="28">
         <f t="shared" si="0"/>
         <v>41518</v>
       </c>
-      <c r="AB5" s="43">
+      <c r="AB5" s="28">
         <f t="shared" si="0"/>
         <v>41519</v>
       </c>
-      <c r="AC5" s="43">
+      <c r="AC5" s="28">
         <f t="shared" si="0"/>
         <v>41520</v>
       </c>
-      <c r="AD5" s="43">
+      <c r="AD5" s="28">
         <f t="shared" si="0"/>
         <v>41521</v>
       </c>
-      <c r="AE5" s="43">
+      <c r="AE5" s="28">
         <f t="shared" si="0"/>
         <v>41522</v>
       </c>
-      <c r="AF5" s="43">
+      <c r="AF5" s="28">
         <f t="shared" si="0"/>
         <v>41523</v>
       </c>
-      <c r="AG5" s="43">
+      <c r="AG5" s="28">
         <f t="shared" si="0"/>
         <v>41524</v>
       </c>
-      <c r="AH5" s="43">
+      <c r="AH5" s="28">
         <f t="shared" si="0"/>
         <v>41525</v>
       </c>
-      <c r="AI5" s="43">
+      <c r="AI5" s="28">
         <f t="shared" si="0"/>
         <v>41526</v>
       </c>
-      <c r="AJ5" s="43">
+      <c r="AJ5" s="28">
         <f t="shared" si="0"/>
         <v>41527</v>
       </c>
-      <c r="AK5" s="43">
+      <c r="AK5" s="28">
         <f t="shared" si="0"/>
         <v>41528</v>
       </c>
-      <c r="AL5" s="43">
+      <c r="AL5" s="28">
         <f t="shared" si="0"/>
         <v>41529</v>
       </c>
-      <c r="AM5" s="43">
+      <c r="AM5" s="28">
         <f t="shared" si="0"/>
         <v>41530</v>
       </c>
-      <c r="AN5" s="43">
+      <c r="AN5" s="28">
         <f t="shared" si="0"/>
         <v>41531</v>
       </c>
-      <c r="AO5" s="43">
+      <c r="AO5" s="28">
         <f t="shared" si="0"/>
         <v>41532</v>
       </c>
-      <c r="AP5" s="43">
+      <c r="AP5" s="28">
         <f t="shared" si="0"/>
         <v>41533</v>
       </c>
-      <c r="AQ5" s="43">
+      <c r="AQ5" s="28">
         <f t="shared" si="0"/>
         <v>41534</v>
       </c>
-      <c r="AR5" s="43">
+      <c r="AR5" s="28">
         <f t="shared" si="0"/>
         <v>41535</v>
       </c>
-      <c r="AS5" s="43">
+      <c r="AS5" s="28">
         <f t="shared" si="0"/>
         <v>41536</v>
       </c>
-      <c r="AT5" s="43">
+      <c r="AT5" s="28">
         <f t="shared" si="0"/>
         <v>41537</v>
       </c>
-      <c r="AU5" s="43">
+      <c r="AU5" s="28">
         <f t="shared" si="0"/>
         <v>41538</v>
       </c>
-      <c r="AV5" s="43">
+      <c r="AV5" s="28">
         <f t="shared" si="0"/>
         <v>41539</v>
       </c>
-      <c r="AW5" s="43">
+      <c r="AW5" s="28">
         <f t="shared" si="0"/>
         <v>41540</v>
       </c>
-      <c r="AX5" s="43">
+      <c r="AX5" s="28">
         <f t="shared" si="0"/>
         <v>41541</v>
       </c>
-      <c r="AY5" s="43">
+      <c r="AY5" s="28">
         <f t="shared" si="0"/>
         <v>41542</v>
       </c>
-      <c r="AZ5" s="43">
+      <c r="AZ5" s="28">
         <f t="shared" si="0"/>
         <v>41543</v>
       </c>
-      <c r="BA5" s="43">
+      <c r="BA5" s="28">
         <f t="shared" si="0"/>
         <v>41544</v>
       </c>
-      <c r="BB5" s="43">
+      <c r="BB5" s="28">
         <f t="shared" si="0"/>
         <v>41545</v>
       </c>
-      <c r="BC5" s="43">
+      <c r="BC5" s="28">
         <f t="shared" si="0"/>
         <v>41546</v>
       </c>
-      <c r="BD5" s="43">
+      <c r="BD5" s="28">
         <f t="shared" si="0"/>
         <v>41547</v>
       </c>
-      <c r="BE5" s="43">
+      <c r="BE5" s="28">
         <f t="shared" si="0"/>
         <v>41548</v>
       </c>
-      <c r="BF5" s="43">
+      <c r="BF5" s="28">
         <f t="shared" si="0"/>
         <v>41549</v>
       </c>
-      <c r="BG5" s="43">
+      <c r="BG5" s="28">
         <f t="shared" si="0"/>
         <v>41550</v>
       </c>
-      <c r="BH5" s="43">
+      <c r="BH5" s="28">
         <f t="shared" si="0"/>
         <v>41551</v>
       </c>
-      <c r="BI5" s="43">
+      <c r="BI5" s="28">
         <f t="shared" si="0"/>
         <v>41552</v>
       </c>
-      <c r="BJ5" s="43">
+      <c r="BJ5" s="28">
         <f t="shared" si="0"/>
         <v>41553</v>
       </c>
-      <c r="BK5" s="43">
+      <c r="BK5" s="28">
         <f t="shared" si="0"/>
         <v>41554</v>
       </c>
-      <c r="BL5" s="43">
+      <c r="BL5" s="28">
         <f t="shared" si="0"/>
         <v>41555</v>
       </c>
-      <c r="BM5" s="43">
+      <c r="BM5" s="28">
         <f t="shared" si="0"/>
         <v>41556</v>
       </c>
-      <c r="BN5" s="43">
+      <c r="BN5" s="28">
         <f t="shared" si="0"/>
         <v>41557</v>
       </c>
-      <c r="BO5" s="43">
+      <c r="BO5" s="28">
         <f t="shared" si="0"/>
         <v>41558</v>
       </c>
     </row>
-    <row r="6" spans="2:67">
-      <c r="B6" s="40" t="s">
-        <v>31</v>
+    <row r="6" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
@@ -2620,12 +3128,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="38.5" customHeight="1">
-      <c r="B7" s="25" t="s">
-        <v>28</v>
+    <row r="7" spans="2:67" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="7">
-        <f t="shared" ref="C7:C21" si="1">C6+D6</f>
+        <f t="shared" ref="C7:C13" si="1">C6+D6</f>
         <v>3</v>
       </c>
       <c r="D7" s="7">
@@ -2641,9 +3149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1">
+    <row r="8" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="1"/>
@@ -2662,7 +3170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1">
+    <row r="9" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
@@ -2683,9 +3191,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:67" ht="30" customHeight="1">
+    <row r="10" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
@@ -2704,7 +3212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1">
+    <row r="11" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
@@ -2726,15 +3234,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1">
-      <c r="B12" s="26" t="s">
-        <v>16</v>
+    <row r="12" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="23">
         <v>3</v>
       </c>
       <c r="E12" s="7">
@@ -2748,9 +3256,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1">
+    <row r="13" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="1"/>
@@ -2770,254 +3278,361 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1">
+    <row r="14" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="7">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="D14" s="7">
+        <v>29</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7">
+        <v>24</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6</v>
+      </c>
+      <c r="E15" s="7">
+        <v>24</v>
+      </c>
+      <c r="F15" s="7">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:67" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="7">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6</v>
+      </c>
+      <c r="E16" s="7">
+        <f>E15</f>
+        <v>24</v>
+      </c>
+      <c r="F16" s="7">
+        <v>32</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="7">
+        <v>24</v>
+      </c>
+      <c r="D17" s="7">
+        <v>6</v>
+      </c>
+      <c r="E17" s="7">
+        <f>E16</f>
+        <v>24</v>
+      </c>
+      <c r="F17" s="7">
+        <v>32</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="7">
+        <v>27</v>
+      </c>
+      <c r="D18" s="7">
+        <v>6</v>
+      </c>
+      <c r="E18" s="7">
+        <v>51</v>
+      </c>
+      <c r="F18" s="7">
+        <v>5</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="7">
+        <v>27</v>
+      </c>
+      <c r="D19" s="7">
+        <v>6</v>
+      </c>
+      <c r="E19" s="7">
+        <v>51</v>
+      </c>
+      <c r="F19" s="7">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="7">
+        <v>33</v>
+      </c>
+      <c r="D20" s="7">
+        <v>8</v>
+      </c>
+      <c r="E20" s="7">
+        <v>54</v>
+      </c>
+      <c r="F20" s="7">
         <v>2</v>
       </c>
-      <c r="E14" s="7">
-        <v>22</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>41</v>
+      </c>
+      <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="G14" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1">
-      <c r="B15" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="7">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="D15" s="7">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1">
-      <c r="B16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="7">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="D16" s="7">
-        <v>5</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1">
-      <c r="B17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="7">
-        <f t="shared" si="1"/>
+      <c r="E21" s="7">
         <v>41</v>
       </c>
-      <c r="D17" s="7">
-        <v>4</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1">
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="7">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="D18" s="7">
-        <v>4</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1">
-      <c r="B19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" s="7">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1">
-      <c r="B20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="7">
-        <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1">
-      <c r="B21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7">
+        <v>15</v>
+      </c>
       <c r="G21" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" ref="C22" si="3">C21+D21</f>
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="7">
+        <v>55</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
       <c r="G22" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="23"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7">
+        <v>45</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
+      <c r="E23" s="7">
+        <v>55</v>
+      </c>
+      <c r="F23" s="7">
+        <v>1</v>
+      </c>
       <c r="G23" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="23"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="7">
+        <v>49</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>55</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
       <c r="G24" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="23"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="7">
+        <v>51</v>
+      </c>
+      <c r="D25" s="7">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>55</v>
+      </c>
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
       <c r="G25" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>55</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
       <c r="G26" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="7">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
       <c r="G27" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7">
+        <v>52</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>56</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
       <c r="G28" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="7">
+        <v>52</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7">
+        <v>1</v>
+      </c>
       <c r="G29" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="7">
+        <v>53</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>57</v>
+      </c>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
       <c r="G30" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="7">
+        <v>56</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7">
+        <v>57</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
       <c r="G31" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" s="6"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3027,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3037,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -3047,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3057,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3067,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -3077,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -3087,7 +3702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -3097,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3122,11 +3737,22 @@
     <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:BO4">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>H$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:BO40">
+  <conditionalFormatting sqref="H6:BO27 H28:BM28 BO28 H29:BL29 BN29:BO29 H30:BO40">
+    <cfRule type="expression" dxfId="10" priority="7">
+      <formula>H$4=period_selected</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="11">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:BO28 H29:BL29 BN29:BO29 H30:BO40">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PercentComplete</formula>
     </cfRule>
@@ -3142,13 +3768,15 @@
     <cfRule type="expression" dxfId="3" priority="6">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
-      <formula>H$4=period_selected</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN28">
+    <cfRule type="expression" dxfId="2" priority="26">
+      <formula>BM$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="11">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="12">
+    <cfRule type="expression" dxfId="0" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3189,6 +3817,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" contentBits="0" removed="0"/>
+  <clbl:label id="{c9f92db8-2851-4df9-9d12-fab52f5b1415}" enabled="1" method="Standard" siteId="{5a7cc8ab-a4dc-4f9b-bf60-66714049ad62}" removed="0"/>
 </clbl:labelList>
 </file>